--- a/PM05_Output/InternationalCovidByDate/04HighestCovidCases Plots.xlsx
+++ b/PM05_Output/InternationalCovidByDate/04HighestCovidCases Plots.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10713"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lilybessette/eclipse-workspace/Covidify-USA/PM05_Output/InternationalCovidByDate/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{504F9EE7-FB78-D644-8A2C-9531A8D6A85B}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8CABDD73-15C5-1E43-B6EB-F9624E2C9D72}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="780" yWindow="960" windowWidth="27640" windowHeight="16080"/>
+    <workbookView xWindow="780" yWindow="960" windowWidth="27640" windowHeight="16080" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="04HighestCovidCases Plots" sheetId="1" r:id="rId1"/>
@@ -331,7 +331,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0%"/>
   </numFmts>
@@ -3245,6 +3245,66 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Rank</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" baseline="0"/>
+                  <a:t> in order of NUmber of Cases</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -3306,6 +3366,61 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Proportion of Cases in the World</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="0.0%" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -4110,6 +4225,66 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Rank in order of Number of</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" baseline="0"/>
+                  <a:t> Cases</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -4172,6 +4347,61 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Proportion of Cases in the USA</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="0.0%" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -6605,16 +6835,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>24</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>110067</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>25400</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>31</xdr:col>
-      <xdr:colOff>311150</xdr:colOff>
-      <xdr:row>45</xdr:row>
-      <xdr:rowOff>171450</xdr:rowOff>
+      <xdr:col>32</xdr:col>
+      <xdr:colOff>421216</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>196850</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -6940,11 +7170,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N52"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:N51"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="V28" zoomScale="150" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="AG31" sqref="AG31"/>
+    <sheetView tabSelected="1" topLeftCell="W27" zoomScale="150" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="AG18" sqref="AG18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -9292,12 +9522,6 @@
         <v>50</v>
       </c>
     </row>
-    <row r="52" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="J52">
-        <f>SUM(J1:J51)</f>
-        <v>922435</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <drawing r:id="rId1"/>

--- a/PM05_Output/InternationalCovidByDate/04HighestCovidCases Plots.xlsx
+++ b/PM05_Output/InternationalCovidByDate/04HighestCovidCases Plots.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lilybessette/eclipse-workspace/Covidify-USA/PM05_Output/InternationalCovidByDate/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8CABDD73-15C5-1E43-B6EB-F9624E2C9D72}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{20CE52F9-A85D-9C41-8F2F-61471587E276}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="780" yWindow="960" windowWidth="27640" windowHeight="16080" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2680" yWindow="1320" windowWidth="27640" windowHeight="16080" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="04HighestCovidCases Plots" sheetId="1" r:id="rId1"/>
@@ -3270,7 +3270,7 @@
                 </a:r>
                 <a:r>
                   <a:rPr lang="en-US" baseline="0"/>
-                  <a:t> in order of NUmber of Cases</a:t>
+                  <a:t> in order of Number of Cases</a:t>
                 </a:r>
                 <a:endParaRPr lang="en-US"/>
               </a:p>
@@ -7173,8 +7173,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:N51"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="W27" zoomScale="150" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="AG18" sqref="AG18"/>
+    <sheetView tabSelected="1" topLeftCell="F1" zoomScale="150" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="L6" sqref="L6:X6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
